--- a/Mapping/unimelb_werribee_url.xlsx
+++ b/Mapping/unimelb_werribee_url.xlsx
@@ -16,16 +16,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
-    <t>Building name</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>WERRIBEE VETERINARY HOSPITAL</t>
+    <t>building_name</t>
+  </si>
+  <si>
+    <t>building_no</t>
+  </si>
+  <si>
+    <t>website:map</t>
+  </si>
+  <si>
+    <t>WERRIBEE BUILDING 411</t>
   </si>
   <si>
     <t>WERRIBEE PATHOLOGY BUILDING</t>
@@ -37,7 +37,7 @@
     <t>WERRIBEE LEARNING &amp; TEACHING BUILDING</t>
   </si>
   <si>
-    <t>WERRIBEE CAMPUS SERVICES WORKSHOP/STORE</t>
+    <t>WERRIBEE CAMPUS MANAGEMENT OFFICE</t>
   </si>
   <si>
     <t>WERRIBEE RESEARCH LABORATORY</t>

--- a/Mapping/unimelb_werribee_url.xlsx
+++ b/Mapping/unimelb_werribee_url.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unimelbcloud-my.sharepoint.com/personal/boat_amorntiyanggoon_unimelb_edu_au/Documents/Casual Tasks/URL_extraction/mapping/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_4CE540F84613CFF96DF6CA3C84C57EBE63E62092" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2E3B441-E7EB-4B02-B5F7-8A7CBDDC6E5A}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -19,7 +25,7 @@
     <t>building_name</t>
   </si>
   <si>
-    <t>building_no</t>
+    <t>No</t>
   </si>
   <si>
     <t>website:map</t>
@@ -67,32 +73,32 @@
     <t>437</t>
   </si>
   <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=217&amp;sharepoitype=identifier&amp;sharepoi= 411 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=217&amp;sharepoitype=identifier&amp;sharepoi= 416 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=217&amp;sharepoitype=identifier&amp;sharepoi= 417 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=217&amp;sharepoitype=identifier&amp;sharepoi= 418 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=217&amp;sharepoitype=identifier&amp;sharepoi= 421 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=217&amp;sharepoitype=identifier&amp;sharepoi= 434 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=217&amp;sharepoitype=identifier&amp;sharepoi= 437 </t>
+    <t>https://use.mazemap.com/?campusid=217&amp;sharepoitype=identifier&amp;sharepoi=411</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=217&amp;sharepoitype=identifier&amp;sharepoi=416</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=217&amp;sharepoitype=identifier&amp;sharepoi=417</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=217&amp;sharepoitype=identifier&amp;sharepoi=418</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=217&amp;sharepoitype=identifier&amp;sharepoi=421</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=217&amp;sharepoitype=identifier&amp;sharepoi=434</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=217&amp;sharepoitype=identifier&amp;sharepoi=437</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,6 +174,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -214,7 +228,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -246,9 +260,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -280,6 +312,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -455,14 +505,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="32.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -473,7 +528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -484,7 +539,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -495,7 +550,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -506,7 +561,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -517,7 +572,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -528,7 +583,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -539,7 +594,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -552,13 +607,13 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="C7" r:id="rId6"/>
-    <hyperlink ref="C8" r:id="rId7"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Mapping/unimelb_werribee_url.xlsx
+++ b/Mapping/unimelb_werribee_url.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unimelbcloud-my.sharepoint.com/personal/boat_amorntiyanggoon_unimelb_edu_au/Documents/Casual Tasks/URL_extraction/mapping/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/HYC-MacBookPro/Documents/Digital Estate/hyperlink-pasting/Mapping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_4CE540F84613CFF96DF6CA3C84C57EBE63E62092" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2E3B441-E7EB-4B02-B5F7-8A7CBDDC6E5A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9CA0C5-0592-FB46-AC2F-CAEE15B97DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -25,9 +38,6 @@
     <t>building_name</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>website:map</t>
   </si>
   <si>
@@ -92,6 +102,9 @@
   </si>
   <si>
     <t>https://use.mazemap.com/?campusid=217&amp;sharepoitype=identifier&amp;sharepoi=437</t>
+  </si>
+  <si>
+    <t>building_no</t>
   </si>
 </sst>
 </file>
@@ -130,7 +143,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -153,6 +166,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -161,12 +185,15 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -506,103 +533,106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.88671875" customWidth="1"/>
+    <col min="1" max="1" width="32.83203125" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Mapping/unimelb_werribee_url.xlsx
+++ b/Mapping/unimelb_werribee_url.xlsx
@@ -1,34 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10409"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/HYC-MacBookPro/Documents/Digital Estate/hyperlink-pasting/Mapping/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9CA0C5-0592-FB46-AC2F-CAEE15B97DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -38,6 +19,9 @@
     <t>building_name</t>
   </si>
   <si>
+    <t>building_no</t>
+  </si>
+  <si>
     <t>website:map</t>
   </si>
   <si>
@@ -102,16 +86,13 @@
   </si>
   <si>
     <t>https://use.mazemap.com/?campusid=217&amp;sharepoitype=identifier&amp;sharepoi=437</t>
-  </si>
-  <si>
-    <t>building_no</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,7 +124,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -166,17 +147,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -185,15 +155,12 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -201,14 +168,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -255,7 +214,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -287,27 +246,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -339,24 +280,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -532,118 +455,110 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="32.83203125" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="66" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink ref="C7" r:id="rId6"/>
+    <hyperlink ref="C8" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
